--- a/TestData/SmokeTest.xlsx
+++ b/TestData/SmokeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CDKproject\autotest\test_selenium_Python3\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651FB289-3995-44A7-A357-4403BEDD2787}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42EB92-76C8-4766-9F9F-A9FA7AB8B853}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Testcase</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>assertText</t>
-  </si>
-  <si>
-    <t>xpath=/html/body/app-root/ion-app/ion-split-pane/ion-router-outlet/app-virecle-list/ion-header/ion-toolbar[1]/ion-text/ion-text</t>
-  </si>
-  <si>
-    <t>客户车辆列表</t>
   </si>
   <si>
     <t>click</t>
@@ -89,25 +83,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF00AA00"/>
-      <name val="Consolas"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -147,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,8 +136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" customWidth="1"/>
@@ -556,7 +534,7 @@
     <col min="6" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,17 +549,6 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.5" customHeight="1">
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -598,99 +565,99 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
